--- a/downloaded_files/ARCS335_Tutorial-35215.xlsx
+++ b/downloaded_files/ARCS335_Tutorial-35215.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -274,6 +274,15 @@
   </x:si>
   <x:si>
     <x:t>maryam adel saadeldin elbareya</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210305</x:t>
+  </x:si>
+  <x:si>
+    <x:t>مريم وائل محمد محمد حسن</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mariam Wael Mohamed Mohamed Hassan</x:t>
   </x:si>
   <x:si>
     <x:t>1210086</x:t>
@@ -470,7 +479,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -770,7 +779,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T38"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1725,7 +1734,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45906.4149700232</x:v>
+        <x:v>45926.4950134259</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1757,7 +1766,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.5695733449</x:v>
+        <x:v>45906.4149700232</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1789,7 +1798,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.415259375</x:v>
+        <x:v>45906.5695733449</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1821,7 +1830,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.4144498843</x:v>
+        <x:v>45906.415259375</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1853,7 +1862,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4146457176</x:v>
+        <x:v>45906.4144498843</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1885,7 +1894,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4144680556</x:v>
+        <x:v>45906.4146457176</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1917,7 +1926,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4145706019</x:v>
+        <x:v>45906.4144680556</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1949,7 +1958,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4147703704</x:v>
+        <x:v>45906.4145706019</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1981,7 +1990,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4147784722</x:v>
+        <x:v>45906.4147703704</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -1998,6 +2007,38 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
+    </x:row>
+    <x:row r="38" spans="1:20">
+      <x:c r="A38" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B38" s="2" t="s">
+        <x:v>113</x:v>
+      </x:c>
+      <x:c r="C38" s="2" t="s">
+        <x:v>114</x:v>
+      </x:c>
+      <x:c r="D38" s="2" t="s">
+        <x:v>115</x:v>
+      </x:c>
+      <x:c r="E38" s="3">
+        <x:v>45906.4147784722</x:v>
+      </x:c>
+      <x:c r="F38" s="2" t="s"/>
+      <x:c r="G38" s="2" t="s"/>
+      <x:c r="H38" s="2" t="s"/>
+      <x:c r="I38" s="2" t="s"/>
+      <x:c r="J38" s="2" t="s"/>
+      <x:c r="K38" s="2" t="s"/>
+      <x:c r="L38" s="2" t="s"/>
+      <x:c r="M38" s="2" t="s"/>
+      <x:c r="N38" s="2" t="s"/>
+      <x:c r="O38" s="2" t="s"/>
+      <x:c r="P38" s="2" t="s"/>
+      <x:c r="Q38" s="2" t="s"/>
+      <x:c r="R38" s="2" t="s"/>
+      <x:c r="S38" s="2" t="s"/>
+      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/ARCS335_Tutorial-35215.xlsx
+++ b/downloaded_files/ARCS335_Tutorial-35215.xlsx
@@ -42,15 +42,6 @@
     <x:t>Arwa Sherif Ibrahim Nabil Mohammad Talaat Abo Hashish</x:t>
   </x:si>
   <x:si>
-    <x:t>1210184</x:t>
-  </x:si>
-  <x:si>
-    <x:t>أية وائل مصطفي سيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ِAyah Wael Mostafa Sayed</x:t>
-  </x:si>
-  <x:si>
     <x:t>1210124</x:t>
   </x:si>
   <x:si>
@@ -265,6 +256,15 @@
   </x:si>
   <x:si>
     <x:t>Lina Baheeg Mahrous Baheeg</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1210293</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمود عماد محمود عبدالحليم</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mahmoud Emad Mahmoud Abdelhalim</x:t>
   </x:si>
   <x:si>
     <x:t>1200481</x:t>
@@ -902,7 +902,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="E3" s="3">
-        <x:v>45906.4196681713</x:v>
+        <x:v>45911.9919491898</x:v>
       </x:c>
       <x:c r="F3" s="2" t="s"/>
       <x:c r="G3" s="2" t="s"/>
@@ -934,7 +934,7 @@
         <x:v>13</x:v>
       </x:c>
       <x:c r="E4" s="3">
-        <x:v>45911.9919491898</x:v>
+        <x:v>45906.4151335301</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s"/>
       <x:c r="G4" s="2" t="s"/>
@@ -966,7 +966,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="E5" s="3">
-        <x:v>45906.4151335301</x:v>
+        <x:v>45906.4143177893</x:v>
       </x:c>
       <x:c r="F5" s="2" t="s"/>
       <x:c r="G5" s="2" t="s"/>
@@ -998,7 +998,7 @@
         <x:v>19</x:v>
       </x:c>
       <x:c r="E6" s="3">
-        <x:v>45906.4143177893</x:v>
+        <x:v>45906.4145627662</x:v>
       </x:c>
       <x:c r="F6" s="2" t="s"/>
       <x:c r="G6" s="2" t="s"/>
@@ -1030,7 +1030,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45906.4145627662</x:v>
+        <x:v>45906.4147568634</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -1062,7 +1062,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45906.4147568634</x:v>
+        <x:v>45906.4143520023</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1094,7 +1094,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45906.4143520023</x:v>
+        <x:v>45906.414721412</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1126,7 +1126,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45906.414721412</x:v>
+        <x:v>45906.4147916667</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1158,7 +1158,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4147916667</x:v>
+        <x:v>45906.4152533912</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1190,7 +1190,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.4152533912</x:v>
+        <x:v>45906.414777581</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1222,7 +1222,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.414777581</x:v>
+        <x:v>45906.4148073727</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1254,7 +1254,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4148073727</x:v>
+        <x:v>45906.4147481481</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1286,7 +1286,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4147481481</x:v>
+        <x:v>45906.4146887384</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1318,7 +1318,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.4146887384</x:v>
+        <x:v>45906.415149537</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1350,7 +1350,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.415149537</x:v>
+        <x:v>45906.4142688657</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1382,7 +1382,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4142688657</x:v>
+        <x:v>45906.4141916319</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1414,7 +1414,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4141916319</x:v>
+        <x:v>45906.4198232639</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1446,7 +1446,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4198232639</x:v>
+        <x:v>45906.4191678588</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1478,7 +1478,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4191678588</x:v>
+        <x:v>45906.4143293981</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1510,7 +1510,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.4143293981</x:v>
+        <x:v>45906.664653125</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1542,7 +1542,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.664653125</x:v>
+        <x:v>45906.420693831</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1574,7 +1574,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.420693831</x:v>
+        <x:v>45906.4143574884</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1606,7 +1606,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4143574884</x:v>
+        <x:v>45906.4142403588</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1638,7 +1638,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4142403588</x:v>
+        <x:v>45906.4145069792</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1670,7 +1670,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45906.4145069792</x:v>
+        <x:v>45928.489328669</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>

--- a/downloaded_files/ARCS335_Tutorial-35215.xlsx
+++ b/downloaded_files/ARCS335_Tutorial-35215.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="116">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -337,15 +337,6 @@
   </x:si>
   <x:si>
     <x:t>Hana Mamdouh Gaber Abdo</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1210325</x:t>
-  </x:si>
-  <x:si>
-    <x:t>يارا ساهر انور عبدالهادي احمد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YARA SAHER ANWAR ABDELHADY AHMED</x:t>
   </x:si>
   <x:si>
     <x:t>1210397</x:t>
@@ -479,7 +470,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E38" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -779,7 +770,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T38"/>
+  <x:dimension ref="A1:T37"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1958,7 +1949,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4145706019</x:v>
+        <x:v>45906.4147703704</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1990,7 +1981,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="E37" s="3">
-        <x:v>45906.4147703704</x:v>
+        <x:v>45906.4147784722</x:v>
       </x:c>
       <x:c r="F37" s="2" t="s"/>
       <x:c r="G37" s="2" t="s"/>
@@ -2007,38 +1998,6 @@
       <x:c r="R37" s="2" t="s"/>
       <x:c r="S37" s="2" t="s"/>
       <x:c r="T37" s="2" t="s"/>
-    </x:row>
-    <x:row r="38" spans="1:20">
-      <x:c r="A38" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B38" s="2" t="s">
-        <x:v>113</x:v>
-      </x:c>
-      <x:c r="C38" s="2" t="s">
-        <x:v>114</x:v>
-      </x:c>
-      <x:c r="D38" s="2" t="s">
-        <x:v>115</x:v>
-      </x:c>
-      <x:c r="E38" s="3">
-        <x:v>45906.4147784722</x:v>
-      </x:c>
-      <x:c r="F38" s="2" t="s"/>
-      <x:c r="G38" s="2" t="s"/>
-      <x:c r="H38" s="2" t="s"/>
-      <x:c r="I38" s="2" t="s"/>
-      <x:c r="J38" s="2" t="s"/>
-      <x:c r="K38" s="2" t="s"/>
-      <x:c r="L38" s="2" t="s"/>
-      <x:c r="M38" s="2" t="s"/>
-      <x:c r="N38" s="2" t="s"/>
-      <x:c r="O38" s="2" t="s"/>
-      <x:c r="P38" s="2" t="s"/>
-      <x:c r="Q38" s="2" t="s"/>
-      <x:c r="R38" s="2" t="s"/>
-      <x:c r="S38" s="2" t="s"/>
-      <x:c r="T38" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/ARCS335_Tutorial-35215.xlsx
+++ b/downloaded_files/ARCS335_Tutorial-35215.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -112,15 +112,6 @@
   </x:si>
   <x:si>
     <x:t>Rana sherif said eletriby</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4210192</x:t>
-  </x:si>
-  <x:si>
-    <x:t>رنا محمد فايد عبدالمنعم</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Rana Mohamed Fayed</x:t>
   </x:si>
   <x:si>
     <x:t>1210231</x:t>
@@ -470,7 +461,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E37" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E36" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -770,7 +761,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T37"/>
+  <x:dimension ref="A1:T36"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1149,7 +1140,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45906.4152533912</x:v>
+        <x:v>45906.414777581</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1181,7 +1172,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45906.414777581</x:v>
+        <x:v>45906.4148073727</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1213,7 +1204,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45906.4148073727</x:v>
+        <x:v>45906.4147481481</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1245,7 +1236,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45906.4147481481</x:v>
+        <x:v>45906.4146887384</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1277,7 +1268,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45906.4146887384</x:v>
+        <x:v>45906.415149537</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1309,7 +1300,7 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="E16" s="3">
-        <x:v>45906.415149537</x:v>
+        <x:v>45906.4142688657</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1341,7 +1332,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="E17" s="3">
-        <x:v>45906.4142688657</x:v>
+        <x:v>45906.4141916319</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1373,7 +1364,7 @@
         <x:v>55</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45906.4141916319</x:v>
+        <x:v>45906.4198232639</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1405,7 +1396,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45906.4198232639</x:v>
+        <x:v>45906.4191678588</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1437,7 +1428,7 @@
         <x:v>61</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45906.4191678588</x:v>
+        <x:v>45906.4143293981</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1469,7 +1460,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45906.4143293981</x:v>
+        <x:v>45906.664653125</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1501,7 +1492,7 @@
         <x:v>67</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45906.664653125</x:v>
+        <x:v>45906.420693831</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1533,7 +1524,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45906.420693831</x:v>
+        <x:v>45906.4143574884</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1565,7 +1556,7 @@
         <x:v>73</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45906.4143574884</x:v>
+        <x:v>45906.4142403588</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1597,7 +1588,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45906.4142403588</x:v>
+        <x:v>45906.4145069792</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1629,7 +1620,7 @@
         <x:v>79</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45906.4145069792</x:v>
+        <x:v>45928.489328669</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1661,7 +1652,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45928.489328669</x:v>
+        <x:v>45906.4153359606</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1693,7 +1684,7 @@
         <x:v>85</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45906.4153359606</x:v>
+        <x:v>45926.4950134259</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1725,7 +1716,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45926.4950134259</x:v>
+        <x:v>45906.4149700232</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1757,7 +1748,7 @@
         <x:v>91</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45906.4149700232</x:v>
+        <x:v>45906.5695733449</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1789,7 +1780,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45906.5695733449</x:v>
+        <x:v>45906.415259375</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1821,7 +1812,7 @@
         <x:v>97</x:v>
       </x:c>
       <x:c r="E32" s="3">
-        <x:v>45906.415259375</x:v>
+        <x:v>45906.4144498843</x:v>
       </x:c>
       <x:c r="F32" s="2" t="s"/>
       <x:c r="G32" s="2" t="s"/>
@@ -1853,7 +1844,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="E33" s="3">
-        <x:v>45906.4144498843</x:v>
+        <x:v>45906.4146457176</x:v>
       </x:c>
       <x:c r="F33" s="2" t="s"/>
       <x:c r="G33" s="2" t="s"/>
@@ -1885,7 +1876,7 @@
         <x:v>103</x:v>
       </x:c>
       <x:c r="E34" s="3">
-        <x:v>45906.4146457176</x:v>
+        <x:v>45906.4144680556</x:v>
       </x:c>
       <x:c r="F34" s="2" t="s"/>
       <x:c r="G34" s="2" t="s"/>
@@ -1917,7 +1908,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="E35" s="3">
-        <x:v>45906.4144680556</x:v>
+        <x:v>45906.4147703704</x:v>
       </x:c>
       <x:c r="F35" s="2" t="s"/>
       <x:c r="G35" s="2" t="s"/>
@@ -1949,7 +1940,7 @@
         <x:v>109</x:v>
       </x:c>
       <x:c r="E36" s="3">
-        <x:v>45906.4147703704</x:v>
+        <x:v>45906.4147784722</x:v>
       </x:c>
       <x:c r="F36" s="2" t="s"/>
       <x:c r="G36" s="2" t="s"/>
@@ -1966,38 +1957,6 @@
       <x:c r="R36" s="2" t="s"/>
       <x:c r="S36" s="2" t="s"/>
       <x:c r="T36" s="2" t="s"/>
-    </x:row>
-    <x:row r="37" spans="1:20">
-      <x:c r="A37" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B37" s="2" t="s">
-        <x:v>110</x:v>
-      </x:c>
-      <x:c r="C37" s="2" t="s">
-        <x:v>111</x:v>
-      </x:c>
-      <x:c r="D37" s="2" t="s">
-        <x:v>112</x:v>
-      </x:c>
-      <x:c r="E37" s="3">
-        <x:v>45906.4147784722</x:v>
-      </x:c>
-      <x:c r="F37" s="2" t="s"/>
-      <x:c r="G37" s="2" t="s"/>
-      <x:c r="H37" s="2" t="s"/>
-      <x:c r="I37" s="2" t="s"/>
-      <x:c r="J37" s="2" t="s"/>
-      <x:c r="K37" s="2" t="s"/>
-      <x:c r="L37" s="2" t="s"/>
-      <x:c r="M37" s="2" t="s"/>
-      <x:c r="N37" s="2" t="s"/>
-      <x:c r="O37" s="2" t="s"/>
-      <x:c r="P37" s="2" t="s"/>
-      <x:c r="Q37" s="2" t="s"/>
-      <x:c r="R37" s="2" t="s"/>
-      <x:c r="S37" s="2" t="s"/>
-      <x:c r="T37" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
